--- a/data/trans_bre/P23_1_R_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R_2016_2023-Provincia-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.68793376040234</v>
+        <v>-18.16200617925407</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.551605140667926</v>
+        <v>-7.596658086419039</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4936064322885963</v>
+        <v>-0.4928751988600351</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.31501911064307</v>
+        <v>-0.312270453675605</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.472874289222774</v>
+        <v>-2.607303329496899</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.564854761092338</v>
+        <v>4.050649127764794</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.1102415073577331</v>
+        <v>-0.09188176642419593</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2695866077822182</v>
+        <v>0.2445285331112588</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>-0.3268256922516516</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.2733914106469035</v>
+        <v>-0.2733914106469034</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-18.21207528246506</v>
+        <v>-18.90911753532881</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-11.62082569458864</v>
+        <v>-11.5051896659817</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4421123041293237</v>
+        <v>-0.4440807684764881</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4510179475326415</v>
+        <v>-0.4436336763893938</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.506759960334087</v>
+        <v>-7.217658975199777</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.265156175979504</v>
+        <v>-0.9651291263547295</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.188523613557077</v>
+        <v>-0.1976690266032327</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.07031373777037192</v>
+        <v>-0.04462671866167588</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-5.594762174971154</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-7.007449267522469</v>
+        <v>-7.007449267522464</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.2003241686230242</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.2942695913521121</v>
+        <v>-0.2942695913521119</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.39740169724243</v>
+        <v>-11.76152068704677</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.75505151045724</v>
+        <v>-13.18372477989037</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.397509101004426</v>
+        <v>-0.3778918022665675</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4638026384543487</v>
+        <v>-0.4735395716086503</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7662460087776014</v>
+        <v>0.6290315890664694</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.541669146571221</v>
+        <v>-1.329508183785321</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.02304061483793493</v>
+        <v>0.02968054774057918</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.06961422306239802</v>
+        <v>-0.06385969565269702</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-10.58470391684802</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-6.663849019060911</v>
+        <v>-6.663849019060908</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2994460672122405</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.2789986562246719</v>
+        <v>-0.2789986562246718</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-16.65448604572978</v>
+        <v>-17.10721913995621</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.93815525857097</v>
+        <v>-13.82306565386439</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4399291242948671</v>
+        <v>-0.4432622912037709</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4820932440801204</v>
+        <v>-0.4754634938461619</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-3.888884264548013</v>
+        <v>-4.005495139762099</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5542691673499933</v>
+        <v>0.5700172557271578</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1240177946734475</v>
+        <v>-0.1185893083659998</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.03099464491210734</v>
+        <v>0.03828406848557853</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>-11.89622557117699</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-6.861348805144586</v>
+        <v>-6.861348805144591</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.3146362879417795</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.3580188705147479</v>
+        <v>-0.3580188705147482</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-20.9432425767725</v>
+        <v>-20.07950952206423</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.20770940443924</v>
+        <v>-12.86576481662107</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.4940973592279921</v>
+        <v>-0.486558435559299</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.5732515953709977</v>
+        <v>-0.551448061317232</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.715014206447617</v>
+        <v>-2.841347074276583</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.866845224881464</v>
+        <v>-1.516235171555895</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.07614196560469549</v>
+        <v>-0.08981502429364824</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.1166159449055494</v>
+        <v>-0.08479179158485149</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-8.235500086483377</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-8.496494075788164</v>
+        <v>-8.496494075788169</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.2569916442133125</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.3325294719827204</v>
+        <v>-0.3325294719827206</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-15.71370114402896</v>
+        <v>-16.55109817854519</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-14.82659892077288</v>
+        <v>-14.02386574261217</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4317458822816608</v>
+        <v>-0.4522141920141379</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5054312775843006</v>
+        <v>-0.4866003103927424</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.537509664939738</v>
+        <v>-1.142304514121012</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-2.963797207615896</v>
+        <v>-1.867614890993456</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.02177869540988482</v>
+        <v>-0.03926618775869688</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1303286634367813</v>
+        <v>-0.09001290106735763</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.4546846951293</v>
+        <v>-11.50745279981213</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.639513349953553</v>
+        <v>-6.439001923628476</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.3469846602606697</v>
+        <v>-0.3745510153198766</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.2709773457750212</v>
+        <v>-0.2617913654097678</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.7348159341840205</v>
+        <v>-1.176364357945638</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.161517791829727</v>
+        <v>1.777618273890202</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>-0.03107973818381447</v>
+        <v>-0.04198494863702203</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.1122655725139188</v>
+        <v>0.09869346096866687</v>
       </c>
     </row>
     <row r="25">
@@ -1046,7 +1046,7 @@
         <v>-0.1768798804901165</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.4241931861617693</v>
+        <v>-0.4241931861617692</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-9.730217661552576</v>
+        <v>-9.605438381515494</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-15.47477923759966</v>
+        <v>-15.19816416141609</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.301419002592111</v>
+        <v>-0.2997048943278496</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.531087960655715</v>
+        <v>-0.5233703153500008</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.7689832404851716</v>
+        <v>-1.015697506786294</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-7.044683283819037</v>
+        <v>-6.969036277488855</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.02814290970154007</v>
+        <v>-0.04174852218141523</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2917879116216342</v>
+        <v>-0.2892861832300122</v>
       </c>
     </row>
     <row r="28">
@@ -1104,13 +1104,13 @@
         <v>-8.193215842646529</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-6.395309193385254</v>
+        <v>-6.395309193385248</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>-0.2549062345624437</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>-0.274570725127133</v>
+        <v>-0.2745707251271328</v>
       </c>
     </row>
     <row r="29">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.57667330144976</v>
+        <v>-10.49016192629202</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.473182786465463</v>
+        <v>-8.233434877056226</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>-0.3175203502700577</v>
+        <v>-0.3159253265693182</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.3452640585025781</v>
+        <v>-0.3370769475317248</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.90405978098678</v>
+        <v>-6.073459476827011</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.678921964237541</v>
+        <v>-4.471190045251484</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>-0.1908248149082122</v>
+        <v>-0.1963256891616644</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>-0.2110989364495535</v>
+        <v>-0.202310177874935</v>
       </c>
     </row>
     <row r="31">
